--- a/docs/legislators_clean.xlsx
+++ b/docs/legislators_clean.xlsx
@@ -32282,7 +32282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
       <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
